--- a/solution_profit_weight_gen1000.xlsx
+++ b/solution_profit_weight_gen1000.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>profit0</t>
   </si>
@@ -112,68 +112,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>1000</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>世代実行結果</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -182,17 +121,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>solution_profit_weight!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>profit1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="31750" cap="rnd">
               <a:noFill/>
@@ -222,607 +150,607 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="201"/>
                 <c:pt idx="0">
-                  <c:v>20528.0</c:v>
+                  <c:v>19917.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20528.0</c:v>
+                  <c:v>19917.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20528.0</c:v>
+                  <c:v>19917.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20528.0</c:v>
+                  <c:v>19917.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20528.0</c:v>
+                  <c:v>19917.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20528.0</c:v>
+                  <c:v>19917.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20528.0</c:v>
+                  <c:v>19917.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20528.0</c:v>
+                  <c:v>19917.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20528.0</c:v>
+                  <c:v>19917.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20528.0</c:v>
+                  <c:v>19917.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20528.0</c:v>
+                  <c:v>19917.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20528.0</c:v>
+                  <c:v>19917.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20528.0</c:v>
+                  <c:v>19917.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20528.0</c:v>
+                  <c:v>19917.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20528.0</c:v>
+                  <c:v>19917.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20528.0</c:v>
+                  <c:v>19917.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20528.0</c:v>
+                  <c:v>19917.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20528.0</c:v>
+                  <c:v>19917.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20528.0</c:v>
+                  <c:v>19917.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20528.0</c:v>
+                  <c:v>19787.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20528.0</c:v>
+                  <c:v>19787.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20528.0</c:v>
+                  <c:v>19787.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20528.0</c:v>
+                  <c:v>19759.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20528.0</c:v>
+                  <c:v>19681.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20528.0</c:v>
+                  <c:v>19702.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>20528.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>20490.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>20490.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>20490.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>20490.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>19931.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>19931.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>19931.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>19954.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>19931.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>19944.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>19871.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>19871.0</c:v>
+                  <c:v>19918.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>19648.0</c:v>
+                  <c:v>19898.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>19424.0</c:v>
+                  <c:v>19774.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>19392.0</c:v>
+                  <c:v>19625.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>19193.0</c:v>
+                  <c:v>19671.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>19193.0</c:v>
+                  <c:v>19591.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>19193.0</c:v>
+                  <c:v>19483.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>19193.0</c:v>
+                  <c:v>19434.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>19193.0</c:v>
+                  <c:v>19390.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>19193.0</c:v>
+                  <c:v>19255.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>19190.0</c:v>
+                  <c:v>19182.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>18903.0</c:v>
+                  <c:v>19107.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>19043.0</c:v>
+                  <c:v>19050.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>18613.0</c:v>
+                  <c:v>18977.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>18653.0</c:v>
+                  <c:v>18889.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>18653.0</c:v>
+                  <c:v>18782.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>18628.0</c:v>
+                  <c:v>18694.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>18613.0</c:v>
+                  <c:v>18694.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>18729.0</c:v>
+                  <c:v>18686.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>18228.0</c:v>
+                  <c:v>18562.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>18228.0</c:v>
+                  <c:v>18499.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>18228.0</c:v>
+                  <c:v>18358.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>18228.0</c:v>
+                  <c:v>18199.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>18098.0</c:v>
+                  <c:v>18176.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>18092.0</c:v>
+                  <c:v>17994.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>18092.0</c:v>
+                  <c:v>17964.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>17944.0</c:v>
+                  <c:v>17909.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>17944.0</c:v>
+                  <c:v>17683.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>17944.0</c:v>
+                  <c:v>17511.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>17973.0</c:v>
+                  <c:v>17535.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>17963.0</c:v>
+                  <c:v>17525.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>17992.0</c:v>
+                  <c:v>17443.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>17992.0</c:v>
+                  <c:v>17361.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>17838.0</c:v>
+                  <c:v>17154.0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>17838.0</c:v>
+                  <c:v>17032.0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>17838.0</c:v>
+                  <c:v>16953.0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>17857.0</c:v>
+                  <c:v>16905.0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>17857.0</c:v>
+                  <c:v>16696.0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>17857.0</c:v>
+                  <c:v>16644.0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>17184.0</c:v>
+                  <c:v>16387.0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>17308.0</c:v>
+                  <c:v>16367.0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>17392.0</c:v>
+                  <c:v>16098.0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>17336.0</c:v>
+                  <c:v>16016.0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>17336.0</c:v>
+                  <c:v>15894.0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>17336.0</c:v>
+                  <c:v>15698.0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>17336.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>17412.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>17336.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>17424.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>17355.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>16510.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>16340.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>16578.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>16340.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>16462.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>16464.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>16535.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>16531.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>16629.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>16629.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>16629.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>16629.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>16629.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>16629.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>16629.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>16629.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>16629.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>16629.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>16629.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>16629.0</c:v>
+                  <c:v>15586.0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>16629.0</c:v>
+                  <c:v>15510.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -834,607 +762,607 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="201"/>
                 <c:pt idx="0">
-                  <c:v>17377.0</c:v>
+                  <c:v>16178.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17377.0</c:v>
+                  <c:v>16178.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17377.0</c:v>
+                  <c:v>16178.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17377.0</c:v>
+                  <c:v>16178.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17377.0</c:v>
+                  <c:v>16178.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17377.0</c:v>
+                  <c:v>16178.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17377.0</c:v>
+                  <c:v>16178.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17377.0</c:v>
+                  <c:v>16178.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17377.0</c:v>
+                  <c:v>16178.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17377.0</c:v>
+                  <c:v>16178.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17377.0</c:v>
+                  <c:v>16178.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17377.0</c:v>
+                  <c:v>16178.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17377.0</c:v>
+                  <c:v>16178.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17377.0</c:v>
+                  <c:v>16178.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17377.0</c:v>
+                  <c:v>16178.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17377.0</c:v>
+                  <c:v>16178.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17377.0</c:v>
+                  <c:v>16178.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17377.0</c:v>
+                  <c:v>16178.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17377.0</c:v>
+                  <c:v>16178.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17377.0</c:v>
+                  <c:v>15998.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17377.0</c:v>
+                  <c:v>15998.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17377.0</c:v>
+                  <c:v>15998.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17377.0</c:v>
+                  <c:v>15933.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17377.0</c:v>
+                  <c:v>15955.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17377.0</c:v>
+                  <c:v>15973.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>17377.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>17370.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>17370.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>17370.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>17370.0</c:v>
+                  <c:v>16129.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>16129.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16129.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16129.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16129.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16129.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16129.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16129.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16129.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16254.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16330.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16514.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16593.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16823.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16940.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>17036.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>17087.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17297.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17338.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17430.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17575.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17674.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>17783.0</c:v>
                 </c:pt>
-                <c:pt idx="69">
-                  <c:v>17783.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>17783.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>17845.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>17783.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>17855.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>17694.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>17694.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>17986.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>17890.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>17904.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>18377.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>18377.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>18377.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>18377.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>18377.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>18377.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>18411.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>18108.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>18268.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>18640.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>18770.0</c:v>
-                </c:pt>
                 <c:pt idx="90">
-                  <c:v>18770.0</c:v>
+                  <c:v>17933.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>18744.0</c:v>
+                  <c:v>18230.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>18640.0</c:v>
+                  <c:v>18230.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>18714.0</c:v>
+                  <c:v>18313.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>18795.0</c:v>
+                  <c:v>18395.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>18795.0</c:v>
+                  <c:v>18490.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>18795.0</c:v>
+                  <c:v>18549.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>18795.0</c:v>
+                  <c:v>18587.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>18747.0</c:v>
+                  <c:v>18610.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>18789.0</c:v>
+                  <c:v>18753.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>18789.0</c:v>
+                  <c:v>18817.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>18851.0</c:v>
+                  <c:v>18909.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>18851.0</c:v>
+                  <c:v>18969.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>18851.0</c:v>
+                  <c:v>19307.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>19090.0</c:v>
+                  <c:v>19305.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>19022.0</c:v>
+                  <c:v>19363.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>19261.0</c:v>
+                  <c:v>19434.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>19261.0</c:v>
+                  <c:v>19493.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>19337.0</c:v>
+                  <c:v>19549.0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>19337.0</c:v>
+                  <c:v>19609.0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>19337.0</c:v>
+                  <c:v>19734.0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>19508.0</c:v>
+                  <c:v>19741.0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>19508.0</c:v>
+                  <c:v>19827.0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>19508.0</c:v>
+                  <c:v>19870.0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>19959.0</c:v>
+                  <c:v>19978.0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>20036.0</c:v>
+                  <c:v>19995.0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>20114.0</c:v>
+                  <c:v>20093.0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>19997.0</c:v>
+                  <c:v>20129.0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>19997.0</c:v>
+                  <c:v>20186.0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>19997.0</c:v>
+                  <c:v>20256.0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>19997.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>20007.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>19997.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>20141.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>20005.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>21007.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>20850.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>21021.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>20850.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>20926.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>20882.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>20985.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>20940.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>21067.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>21067.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>21067.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>21067.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>21067.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>21067.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>21067.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>21067.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>21067.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>21067.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>21067.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>21067.0</c:v>
+                  <c:v>20268.0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>21067.0</c:v>
+                  <c:v>20277.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1449,11 +1377,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2001689264"/>
-        <c:axId val="-2001167984"/>
+        <c:axId val="-2027183408"/>
+        <c:axId val="-2027717088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2001689264"/>
+        <c:axId val="-2027183408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1530,7 +1458,6 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1567,12 +1494,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2001167984"/>
+        <c:crossAx val="-2027717088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2001167984"/>
+        <c:axId val="-2027717088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,7 +1612,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2001689264"/>
+        <c:crossAx val="-2027183408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2294,16 +2221,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2590,8 +2517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -2624,2826 +2551,2818 @@
         <v>13357</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>20528</v>
+        <v>19917</v>
       </c>
       <c r="B4">
-        <v>17377</v>
+        <v>16178</v>
       </c>
       <c r="C4">
-        <v>13743</v>
+        <v>13727</v>
       </c>
       <c r="D4">
-        <v>16282</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>20528</v>
+        <v>19917</v>
       </c>
       <c r="B5">
-        <v>17377</v>
+        <v>16178</v>
       </c>
       <c r="C5">
-        <v>13743</v>
+        <v>13727</v>
       </c>
       <c r="D5">
-        <v>16282</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>20528</v>
+        <v>19917</v>
       </c>
       <c r="B6">
-        <v>17377</v>
+        <v>16178</v>
       </c>
       <c r="C6">
-        <v>13743</v>
+        <v>13727</v>
       </c>
       <c r="D6">
-        <v>16282</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>20528</v>
+        <v>19917</v>
       </c>
       <c r="B7">
-        <v>17377</v>
+        <v>16178</v>
       </c>
       <c r="C7">
-        <v>13743</v>
+        <v>13727</v>
       </c>
       <c r="D7">
-        <v>16282</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>20528</v>
+        <v>19917</v>
       </c>
       <c r="B8">
-        <v>17377</v>
+        <v>16178</v>
       </c>
       <c r="C8">
-        <v>13743</v>
+        <v>13727</v>
       </c>
       <c r="D8">
-        <v>16282</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>20528</v>
+        <v>19917</v>
       </c>
       <c r="B9">
-        <v>17377</v>
+        <v>16178</v>
       </c>
       <c r="C9">
-        <v>13743</v>
+        <v>13727</v>
       </c>
       <c r="D9">
-        <v>16282</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>20528</v>
+        <v>19917</v>
       </c>
       <c r="B10">
-        <v>17377</v>
+        <v>16178</v>
       </c>
       <c r="C10">
-        <v>13743</v>
+        <v>13727</v>
       </c>
       <c r="D10">
-        <v>16282</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>20528</v>
+        <v>19917</v>
       </c>
       <c r="B11">
-        <v>17377</v>
+        <v>16178</v>
       </c>
       <c r="C11">
-        <v>13743</v>
+        <v>13727</v>
       </c>
       <c r="D11">
-        <v>16282</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>20528</v>
+        <v>19917</v>
       </c>
       <c r="B12">
-        <v>17377</v>
+        <v>16178</v>
       </c>
       <c r="C12">
-        <v>13743</v>
+        <v>13727</v>
       </c>
       <c r="D12">
-        <v>16282</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>20528</v>
+        <v>19917</v>
       </c>
       <c r="B13">
-        <v>17377</v>
+        <v>16178</v>
       </c>
       <c r="C13">
-        <v>13743</v>
+        <v>13727</v>
       </c>
       <c r="D13">
-        <v>16282</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>20528</v>
+        <v>19917</v>
       </c>
       <c r="B14">
-        <v>17377</v>
+        <v>16178</v>
       </c>
       <c r="C14">
-        <v>13743</v>
+        <v>13727</v>
       </c>
       <c r="D14">
-        <v>16282</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>20528</v>
+        <v>19917</v>
       </c>
       <c r="B15">
-        <v>17377</v>
+        <v>16178</v>
       </c>
       <c r="C15">
-        <v>13743</v>
+        <v>13727</v>
       </c>
       <c r="D15">
-        <v>16282</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>20528</v>
+        <v>19917</v>
       </c>
       <c r="B16">
-        <v>17377</v>
+        <v>16178</v>
       </c>
       <c r="C16">
-        <v>13743</v>
+        <v>13727</v>
       </c>
       <c r="D16">
-        <v>16282</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>20528</v>
+        <v>19917</v>
       </c>
       <c r="B17">
-        <v>17377</v>
+        <v>16178</v>
       </c>
       <c r="C17">
-        <v>13743</v>
+        <v>13727</v>
       </c>
       <c r="D17">
-        <v>16282</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>20528</v>
+        <v>19917</v>
       </c>
       <c r="B18">
-        <v>17377</v>
+        <v>16178</v>
       </c>
       <c r="C18">
-        <v>13743</v>
+        <v>13727</v>
       </c>
       <c r="D18">
-        <v>16282</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>20528</v>
+        <v>19917</v>
       </c>
       <c r="B19">
-        <v>17377</v>
+        <v>16178</v>
       </c>
       <c r="C19">
-        <v>13743</v>
+        <v>13727</v>
       </c>
       <c r="D19">
-        <v>16282</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>20528</v>
+        <v>19917</v>
       </c>
       <c r="B20">
-        <v>17377</v>
+        <v>16178</v>
       </c>
       <c r="C20">
-        <v>13743</v>
+        <v>13727</v>
       </c>
       <c r="D20">
-        <v>16282</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20528</v>
+        <v>19917</v>
       </c>
       <c r="B21">
-        <v>17377</v>
+        <v>16178</v>
       </c>
       <c r="C21">
-        <v>13743</v>
+        <v>13727</v>
       </c>
       <c r="D21">
-        <v>16282</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>20528</v>
+        <v>19917</v>
       </c>
       <c r="B22">
-        <v>17377</v>
+        <v>16178</v>
       </c>
       <c r="C22">
-        <v>13743</v>
+        <v>13727</v>
       </c>
       <c r="D22">
-        <v>16282</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B23">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C23">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D23">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>20528</v>
+        <v>19787</v>
       </c>
       <c r="B24">
-        <v>17377</v>
+        <v>15998</v>
       </c>
       <c r="C24">
-        <v>13743</v>
+        <v>13652</v>
       </c>
       <c r="D24">
-        <v>16282</v>
+        <v>13313</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>20528</v>
+        <v>19787</v>
       </c>
       <c r="B25">
-        <v>17377</v>
+        <v>15998</v>
       </c>
       <c r="C25">
-        <v>13743</v>
+        <v>13652</v>
       </c>
       <c r="D25">
-        <v>16282</v>
+        <v>13313</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>20528</v>
+        <v>19787</v>
       </c>
       <c r="B26">
-        <v>17377</v>
+        <v>15998</v>
       </c>
       <c r="C26">
-        <v>13743</v>
+        <v>13652</v>
       </c>
       <c r="D26">
-        <v>16282</v>
+        <v>13313</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>20528</v>
+        <v>19759</v>
       </c>
       <c r="B27">
-        <v>17377</v>
+        <v>15933</v>
       </c>
       <c r="C27">
-        <v>13743</v>
+        <v>13595</v>
       </c>
       <c r="D27">
-        <v>16282</v>
+        <v>13280</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>20528</v>
+        <v>19681</v>
       </c>
       <c r="B28">
-        <v>17377</v>
+        <v>15955</v>
       </c>
       <c r="C28">
-        <v>13743</v>
+        <v>13655</v>
       </c>
       <c r="D28">
-        <v>16282</v>
+        <v>13332</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>20528</v>
+        <v>19702</v>
       </c>
       <c r="B29">
-        <v>17377</v>
+        <v>15973</v>
       </c>
       <c r="C29">
-        <v>13743</v>
+        <v>13566</v>
       </c>
       <c r="D29">
-        <v>16282</v>
+        <v>13228</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B30">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C30">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D30">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B31">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C31">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D31">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B32">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C32">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D32">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B33">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C33">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D33">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B34">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C34">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D34">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B35">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C35">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D35">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B36">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C36">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D36">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B37">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C37">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D37">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B38">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C38">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D38">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B39">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C39">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D39">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B40">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C40">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D40">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B41">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C41">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D41">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B42">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C42">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D42">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B43">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C43">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D43">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B44">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C44">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D44">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B45">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C45">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D45">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B46">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C46">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D46">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B47">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C47">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D47">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B48">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C48">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D48">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B49">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C49">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D49">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B50">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C50">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D50">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B51">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C51">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D51">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B52">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C52">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D52">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B53">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C53">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D53">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B54">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C54">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D54">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B55">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C55">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D55">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B56">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C56">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D56">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B57">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C57">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D57">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B58">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C58">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D58">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B59">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C59">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D59">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B60">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C60">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D60">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B61">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C61">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D61">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B62">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C62">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D62">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B63">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C63">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D63">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B64">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C64">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D64">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B65">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C65">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D65">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B66">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C66">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D66">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>20528</v>
+        <v>19918</v>
       </c>
       <c r="B67">
-        <v>17377</v>
+        <v>16129</v>
       </c>
       <c r="C67">
-        <v>13743</v>
+        <v>13714</v>
       </c>
       <c r="D67">
-        <v>16282</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>20490</v>
+        <v>19918</v>
       </c>
       <c r="B68">
-        <v>17370</v>
+        <v>16129</v>
       </c>
       <c r="C68">
-        <v>13760</v>
+        <v>13714</v>
       </c>
       <c r="D68">
-        <v>16177</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>20490</v>
+        <v>19918</v>
       </c>
       <c r="B69">
-        <v>17370</v>
+        <v>16129</v>
       </c>
       <c r="C69">
-        <v>13760</v>
+        <v>13714</v>
       </c>
       <c r="D69">
-        <v>16177</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>20490</v>
+        <v>19918</v>
       </c>
       <c r="B70">
-        <v>17370</v>
+        <v>16129</v>
       </c>
       <c r="C70">
-        <v>13760</v>
+        <v>13714</v>
       </c>
       <c r="D70">
-        <v>16177</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>20490</v>
+        <v>19918</v>
       </c>
       <c r="B71">
-        <v>17370</v>
+        <v>16129</v>
       </c>
       <c r="C71">
-        <v>13760</v>
+        <v>13714</v>
       </c>
       <c r="D71">
-        <v>16177</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>19931</v>
+        <v>19918</v>
       </c>
       <c r="B72">
-        <v>17783</v>
+        <v>16129</v>
       </c>
       <c r="C72">
-        <v>13705</v>
+        <v>13714</v>
       </c>
       <c r="D72">
-        <v>15327</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>19931</v>
+        <v>19918</v>
       </c>
       <c r="B73">
-        <v>17783</v>
+        <v>16129</v>
       </c>
       <c r="C73">
-        <v>13705</v>
+        <v>13714</v>
       </c>
       <c r="D73">
-        <v>15327</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>19931</v>
+        <v>19918</v>
       </c>
       <c r="B74">
-        <v>17783</v>
+        <v>16129</v>
       </c>
       <c r="C74">
-        <v>13705</v>
+        <v>13714</v>
       </c>
       <c r="D74">
-        <v>15327</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>19954</v>
+        <v>19918</v>
       </c>
       <c r="B75">
-        <v>17845</v>
+        <v>16129</v>
       </c>
       <c r="C75">
-        <v>13734</v>
+        <v>13714</v>
       </c>
       <c r="D75">
-        <v>15388</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>19931</v>
+        <v>19918</v>
       </c>
       <c r="B76">
-        <v>17783</v>
+        <v>16129</v>
       </c>
       <c r="C76">
-        <v>13705</v>
+        <v>13714</v>
       </c>
       <c r="D76">
-        <v>15327</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>19944</v>
+        <v>19918</v>
       </c>
       <c r="B77">
-        <v>17855</v>
+        <v>16129</v>
       </c>
       <c r="C77">
-        <v>13748</v>
+        <v>13714</v>
       </c>
       <c r="D77">
-        <v>15394</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>19871</v>
+        <v>19918</v>
       </c>
       <c r="B78">
-        <v>17694</v>
+        <v>16129</v>
       </c>
       <c r="C78">
-        <v>13618</v>
+        <v>13714</v>
       </c>
       <c r="D78">
-        <v>15250</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>19871</v>
+        <v>19918</v>
       </c>
       <c r="B79">
-        <v>17694</v>
+        <v>16129</v>
       </c>
       <c r="C79">
-        <v>13618</v>
+        <v>13714</v>
       </c>
       <c r="D79">
-        <v>15250</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>19648</v>
+        <v>19898</v>
       </c>
       <c r="B80">
-        <v>17986</v>
+        <v>16254</v>
       </c>
       <c r="C80">
-        <v>13394</v>
+        <v>13743</v>
       </c>
       <c r="D80">
-        <v>15076</v>
+        <v>13338</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>19424</v>
+        <v>19774</v>
       </c>
       <c r="B81">
-        <v>17890</v>
+        <v>16330</v>
       </c>
       <c r="C81">
-        <v>13318</v>
+        <v>13738</v>
       </c>
       <c r="D81">
-        <v>14903</v>
+        <v>13289</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>19392</v>
+        <v>19625</v>
       </c>
       <c r="B82">
-        <v>17904</v>
+        <v>16514</v>
       </c>
       <c r="C82">
-        <v>13297</v>
+        <v>13648</v>
       </c>
       <c r="D82">
-        <v>14892</v>
+        <v>13286</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>19193</v>
+        <v>19671</v>
       </c>
       <c r="B83">
-        <v>18377</v>
+        <v>16593</v>
       </c>
       <c r="C83">
-        <v>13737</v>
+        <v>13687</v>
       </c>
       <c r="D83">
-        <v>14355</v>
+        <v>13313</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>19193</v>
+        <v>19591</v>
       </c>
       <c r="B84">
-        <v>18377</v>
+        <v>16823</v>
       </c>
       <c r="C84">
-        <v>13737</v>
+        <v>13742</v>
       </c>
       <c r="D84">
-        <v>14355</v>
+        <v>13331</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>19193</v>
+        <v>19483</v>
       </c>
       <c r="B85">
-        <v>18377</v>
+        <v>16940</v>
       </c>
       <c r="C85">
-        <v>13737</v>
+        <v>13705</v>
       </c>
       <c r="D85">
-        <v>14355</v>
+        <v>13324</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>19193</v>
+        <v>19434</v>
       </c>
       <c r="B86">
-        <v>18377</v>
+        <v>17036</v>
       </c>
       <c r="C86">
-        <v>13737</v>
+        <v>13739</v>
       </c>
       <c r="D86">
-        <v>14355</v>
+        <v>13330</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>19193</v>
+        <v>19390</v>
       </c>
       <c r="B87">
-        <v>18377</v>
+        <v>17087</v>
       </c>
       <c r="C87">
-        <v>13737</v>
+        <v>13718</v>
       </c>
       <c r="D87">
-        <v>14355</v>
+        <v>13307</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>19193</v>
+        <v>19255</v>
       </c>
       <c r="B88">
-        <v>18377</v>
+        <v>17297</v>
       </c>
       <c r="C88">
-        <v>13737</v>
+        <v>13727</v>
       </c>
       <c r="D88">
-        <v>14355</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>19190</v>
+        <v>19182</v>
       </c>
       <c r="B89">
-        <v>18411</v>
+        <v>17338</v>
       </c>
       <c r="C89">
-        <v>13790</v>
+        <v>13720</v>
       </c>
       <c r="D89">
-        <v>14411</v>
+        <v>13345</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>18903</v>
+        <v>19107</v>
       </c>
       <c r="B90">
-        <v>18108</v>
+        <v>17430</v>
       </c>
       <c r="C90">
-        <v>13564</v>
+        <v>13740</v>
       </c>
       <c r="D90">
-        <v>14102</v>
+        <v>13276</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>19043</v>
+        <v>19050</v>
       </c>
       <c r="B91">
-        <v>18268</v>
+        <v>17575</v>
       </c>
       <c r="C91">
-        <v>13639</v>
+        <v>13709</v>
       </c>
       <c r="D91">
-        <v>14200</v>
+        <v>13332</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>18613</v>
+        <v>18977</v>
       </c>
       <c r="B92">
-        <v>18640</v>
+        <v>17674</v>
       </c>
       <c r="C92">
-        <v>13682</v>
+        <v>13733</v>
       </c>
       <c r="D92">
-        <v>13861</v>
+        <v>13309</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>18653</v>
+        <v>18889</v>
       </c>
       <c r="B93">
-        <v>18770</v>
+        <v>17783</v>
       </c>
       <c r="C93">
-        <v>13738</v>
+        <v>13743</v>
       </c>
       <c r="D93">
-        <v>13928</v>
+        <v>13337</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>18653</v>
+        <v>18782</v>
       </c>
       <c r="B94">
-        <v>18770</v>
+        <v>17933</v>
       </c>
       <c r="C94">
-        <v>13738</v>
+        <v>13741</v>
       </c>
       <c r="D94">
-        <v>13928</v>
+        <v>13337</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>18628</v>
+        <v>18694</v>
       </c>
       <c r="B95">
-        <v>18744</v>
+        <v>18230</v>
       </c>
       <c r="C95">
-        <v>13714</v>
+        <v>13690</v>
       </c>
       <c r="D95">
-        <v>13892</v>
+        <v>13336</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>18613</v>
+        <v>18694</v>
       </c>
       <c r="B96">
-        <v>18640</v>
+        <v>18230</v>
       </c>
       <c r="C96">
-        <v>13682</v>
+        <v>13690</v>
       </c>
       <c r="D96">
-        <v>13861</v>
+        <v>13336</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>18729</v>
+        <v>18686</v>
       </c>
       <c r="B97">
-        <v>18714</v>
+        <v>18313</v>
       </c>
       <c r="C97">
-        <v>13888</v>
+        <v>13742</v>
       </c>
       <c r="D97">
-        <v>13954</v>
+        <v>13354</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>18228</v>
+        <v>18562</v>
       </c>
       <c r="B98">
-        <v>18795</v>
+        <v>18395</v>
       </c>
       <c r="C98">
-        <v>13685</v>
+        <v>13677</v>
       </c>
       <c r="D98">
-        <v>13469</v>
+        <v>13354</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>18228</v>
+        <v>18499</v>
       </c>
       <c r="B99">
-        <v>18795</v>
+        <v>18490</v>
       </c>
       <c r="C99">
-        <v>13685</v>
+        <v>13712</v>
       </c>
       <c r="D99">
-        <v>13469</v>
+        <v>13351</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>18228</v>
+        <v>18358</v>
       </c>
       <c r="B100">
-        <v>18795</v>
+        <v>18549</v>
       </c>
       <c r="C100">
-        <v>13685</v>
+        <v>13718</v>
       </c>
       <c r="D100">
-        <v>13469</v>
+        <v>13342</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>18228</v>
+        <v>18199</v>
       </c>
       <c r="B101">
-        <v>18795</v>
+        <v>18587</v>
       </c>
       <c r="C101">
-        <v>13685</v>
+        <v>13743</v>
       </c>
       <c r="D101">
-        <v>13469</v>
+        <v>13328</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>18098</v>
+        <v>18176</v>
       </c>
       <c r="B102">
-        <v>18747</v>
+        <v>18610</v>
       </c>
       <c r="C102">
-        <v>13655</v>
+        <v>13693</v>
       </c>
       <c r="D102">
-        <v>13328</v>
+        <v>13353</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>18092</v>
+        <v>17994</v>
       </c>
       <c r="B103">
-        <v>18789</v>
+        <v>18753</v>
       </c>
       <c r="C103">
-        <v>13675</v>
+        <v>13733</v>
       </c>
       <c r="D103">
-        <v>13348</v>
+        <v>13345</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>18092</v>
+        <v>17964</v>
       </c>
       <c r="B104">
-        <v>18789</v>
+        <v>18817</v>
       </c>
       <c r="C104">
-        <v>13675</v>
+        <v>13721</v>
       </c>
       <c r="D104">
-        <v>13348</v>
+        <v>13349</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>17944</v>
+        <v>17909</v>
       </c>
       <c r="B105">
-        <v>18851</v>
+        <v>18909</v>
       </c>
       <c r="C105">
-        <v>13876</v>
+        <v>13741</v>
       </c>
       <c r="D105">
-        <v>13312</v>
+        <v>13350</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>17944</v>
+        <v>17683</v>
       </c>
       <c r="B106">
-        <v>18851</v>
+        <v>18969</v>
       </c>
       <c r="C106">
-        <v>13876</v>
+        <v>13720</v>
       </c>
       <c r="D106">
-        <v>13312</v>
+        <v>13342</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>17944</v>
+        <v>17511</v>
       </c>
       <c r="B107">
-        <v>18851</v>
+        <v>19307</v>
       </c>
       <c r="C107">
-        <v>13876</v>
+        <v>13729</v>
       </c>
       <c r="D107">
-        <v>13312</v>
+        <v>13327</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>17973</v>
+        <v>17535</v>
       </c>
       <c r="B108">
-        <v>19090</v>
+        <v>19305</v>
       </c>
       <c r="C108">
-        <v>14178</v>
+        <v>13712</v>
       </c>
       <c r="D108">
-        <v>13450</v>
+        <v>13259</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>17963</v>
+        <v>17525</v>
       </c>
       <c r="B109">
-        <v>19022</v>
+        <v>19363</v>
       </c>
       <c r="C109">
-        <v>14031</v>
+        <v>13731</v>
       </c>
       <c r="D109">
-        <v>13409</v>
+        <v>13311</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>17992</v>
+        <v>17443</v>
       </c>
       <c r="B110">
-        <v>19261</v>
+        <v>19434</v>
       </c>
       <c r="C110">
-        <v>14333</v>
+        <v>13683</v>
       </c>
       <c r="D110">
-        <v>13547</v>
+        <v>13342</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>17992</v>
+        <v>17361</v>
       </c>
       <c r="B111">
-        <v>19261</v>
+        <v>19493</v>
       </c>
       <c r="C111">
-        <v>14333</v>
+        <v>13730</v>
       </c>
       <c r="D111">
-        <v>13547</v>
+        <v>13348</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>17838</v>
+        <v>17154</v>
       </c>
       <c r="B112">
-        <v>19337</v>
+        <v>19549</v>
       </c>
       <c r="C112">
-        <v>14751</v>
+        <v>13724</v>
       </c>
       <c r="D112">
-        <v>13253</v>
+        <v>13345</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>17838</v>
+        <v>17032</v>
       </c>
       <c r="B113">
-        <v>19337</v>
+        <v>19609</v>
       </c>
       <c r="C113">
-        <v>14751</v>
+        <v>13705</v>
       </c>
       <c r="D113">
-        <v>13253</v>
+        <v>13347</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>17838</v>
+        <v>16953</v>
       </c>
       <c r="B114">
-        <v>19337</v>
+        <v>19734</v>
       </c>
       <c r="C114">
-        <v>14751</v>
+        <v>13707</v>
       </c>
       <c r="D114">
-        <v>13253</v>
+        <v>13329</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>17857</v>
+        <v>16905</v>
       </c>
       <c r="B115">
-        <v>19508</v>
+        <v>19741</v>
       </c>
       <c r="C115">
-        <v>14906</v>
+        <v>13725</v>
       </c>
       <c r="D115">
-        <v>13350</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>17857</v>
+        <v>16696</v>
       </c>
       <c r="B116">
-        <v>19508</v>
+        <v>19827</v>
       </c>
       <c r="C116">
-        <v>14906</v>
+        <v>13677</v>
       </c>
       <c r="D116">
-        <v>13350</v>
+        <v>13340</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>17857</v>
+        <v>16644</v>
       </c>
       <c r="B117">
-        <v>19508</v>
+        <v>19870</v>
       </c>
       <c r="C117">
-        <v>14906</v>
+        <v>13741</v>
       </c>
       <c r="D117">
-        <v>13350</v>
+        <v>13342</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>17184</v>
+        <v>16387</v>
       </c>
       <c r="B118">
-        <v>19959</v>
+        <v>19978</v>
       </c>
       <c r="C118">
-        <v>15180</v>
+        <v>13714</v>
       </c>
       <c r="D118">
-        <v>13408</v>
+        <v>13334</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>17308</v>
+        <v>16367</v>
       </c>
       <c r="B119">
-        <v>20036</v>
+        <v>19995</v>
       </c>
       <c r="C119">
-        <v>15272</v>
+        <v>13668</v>
       </c>
       <c r="D119">
-        <v>13477</v>
+        <v>13332</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>17392</v>
+        <v>16098</v>
       </c>
       <c r="B120">
-        <v>20114</v>
+        <v>20093</v>
       </c>
       <c r="C120">
-        <v>15440</v>
+        <v>13721</v>
       </c>
       <c r="D120">
-        <v>13585</v>
+        <v>13308</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>17336</v>
+        <v>16016</v>
       </c>
       <c r="B121">
-        <v>19997</v>
+        <v>20129</v>
       </c>
       <c r="C121">
-        <v>15368</v>
+        <v>13705</v>
       </c>
       <c r="D121">
-        <v>13408</v>
+        <v>13323</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>17336</v>
+        <v>15894</v>
       </c>
       <c r="B122">
-        <v>19997</v>
+        <v>20186</v>
       </c>
       <c r="C122">
-        <v>15368</v>
+        <v>13729</v>
       </c>
       <c r="D122">
-        <v>13408</v>
+        <v>13338</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>17336</v>
+        <v>15698</v>
       </c>
       <c r="B123">
-        <v>19997</v>
+        <v>20256</v>
       </c>
       <c r="C123">
-        <v>15368</v>
+        <v>13740</v>
       </c>
       <c r="D123">
-        <v>13408</v>
+        <v>13356</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>17336</v>
+        <v>15586</v>
       </c>
       <c r="B124">
-        <v>19997</v>
+        <v>20268</v>
       </c>
       <c r="C124">
-        <v>15368</v>
+        <v>13717</v>
       </c>
       <c r="D124">
-        <v>13408</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>17412</v>
+        <v>15586</v>
       </c>
       <c r="B125">
-        <v>20007</v>
+        <v>20268</v>
       </c>
       <c r="C125">
-        <v>15417</v>
+        <v>13717</v>
       </c>
       <c r="D125">
-        <v>13482</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>17336</v>
+        <v>15586</v>
       </c>
       <c r="B126">
-        <v>19997</v>
+        <v>20268</v>
       </c>
       <c r="C126">
-        <v>15368</v>
+        <v>13717</v>
       </c>
       <c r="D126">
-        <v>13408</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>17424</v>
+        <v>15586</v>
       </c>
       <c r="B127">
-        <v>20141</v>
+        <v>20268</v>
       </c>
       <c r="C127">
-        <v>15446</v>
+        <v>13717</v>
       </c>
       <c r="D127">
-        <v>13485</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>17355</v>
+        <v>15586</v>
       </c>
       <c r="B128">
-        <v>20005</v>
+        <v>20268</v>
       </c>
       <c r="C128">
-        <v>15354</v>
+        <v>13717</v>
       </c>
       <c r="D128">
-        <v>13411</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>16510</v>
+        <v>15586</v>
       </c>
       <c r="B129">
-        <v>21007</v>
+        <v>20268</v>
       </c>
       <c r="C129">
-        <v>16855</v>
+        <v>13717</v>
       </c>
       <c r="D129">
-        <v>13351</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>16340</v>
+        <v>15586</v>
       </c>
       <c r="B130">
-        <v>20850</v>
+        <v>20268</v>
       </c>
       <c r="C130">
-        <v>16796</v>
+        <v>13717</v>
       </c>
       <c r="D130">
-        <v>13294</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>16578</v>
+        <v>15586</v>
       </c>
       <c r="B131">
-        <v>21021</v>
+        <v>20268</v>
       </c>
       <c r="C131">
-        <v>16821</v>
+        <v>13717</v>
       </c>
       <c r="D131">
-        <v>13315</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>16340</v>
+        <v>15586</v>
       </c>
       <c r="B132">
-        <v>20850</v>
+        <v>20268</v>
       </c>
       <c r="C132">
-        <v>16796</v>
+        <v>13717</v>
       </c>
       <c r="D132">
-        <v>13294</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>16462</v>
+        <v>15586</v>
       </c>
       <c r="B133">
-        <v>20926</v>
+        <v>20268</v>
       </c>
       <c r="C133">
-        <v>16677</v>
+        <v>13717</v>
       </c>
       <c r="D133">
-        <v>13253</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>16464</v>
+        <v>15586</v>
       </c>
       <c r="B134">
-        <v>20882</v>
+        <v>20268</v>
       </c>
       <c r="C134">
-        <v>16695</v>
+        <v>13717</v>
       </c>
       <c r="D134">
-        <v>13229</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>16535</v>
+        <v>15586</v>
       </c>
       <c r="B135">
-        <v>20985</v>
+        <v>20268</v>
       </c>
       <c r="C135">
-        <v>16819</v>
+        <v>13717</v>
       </c>
       <c r="D135">
-        <v>13321</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>16531</v>
+        <v>15586</v>
       </c>
       <c r="B136">
-        <v>20940</v>
+        <v>20268</v>
       </c>
       <c r="C136">
-        <v>16758</v>
+        <v>13717</v>
       </c>
       <c r="D136">
-        <v>13251</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>16629</v>
+        <v>15586</v>
       </c>
       <c r="B137">
-        <v>21067</v>
+        <v>20268</v>
       </c>
       <c r="C137">
-        <v>16841</v>
+        <v>13717</v>
       </c>
       <c r="D137">
-        <v>13348</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>16629</v>
+        <v>15586</v>
       </c>
       <c r="B138">
-        <v>21067</v>
+        <v>20268</v>
       </c>
       <c r="C138">
-        <v>16841</v>
+        <v>13717</v>
       </c>
       <c r="D138">
-        <v>13348</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>16629</v>
+        <v>15586</v>
       </c>
       <c r="B139">
-        <v>21067</v>
+        <v>20268</v>
       </c>
       <c r="C139">
-        <v>16841</v>
+        <v>13717</v>
       </c>
       <c r="D139">
-        <v>13348</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>16629</v>
+        <v>15586</v>
       </c>
       <c r="B140">
-        <v>21067</v>
+        <v>20268</v>
       </c>
       <c r="C140">
-        <v>16841</v>
+        <v>13717</v>
       </c>
       <c r="D140">
-        <v>13348</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>16629</v>
+        <v>15586</v>
       </c>
       <c r="B141">
-        <v>21067</v>
+        <v>20268</v>
       </c>
       <c r="C141">
-        <v>16841</v>
+        <v>13717</v>
       </c>
       <c r="D141">
-        <v>13348</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>16629</v>
+        <v>15586</v>
       </c>
       <c r="B142">
-        <v>21067</v>
+        <v>20268</v>
       </c>
       <c r="C142">
-        <v>16841</v>
+        <v>13717</v>
       </c>
       <c r="D142">
-        <v>13348</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>16629</v>
+        <v>15586</v>
       </c>
       <c r="B143">
-        <v>21067</v>
+        <v>20268</v>
       </c>
       <c r="C143">
-        <v>16841</v>
+        <v>13717</v>
       </c>
       <c r="D143">
-        <v>13348</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>16629</v>
+        <v>15586</v>
       </c>
       <c r="B144">
-        <v>21067</v>
+        <v>20268</v>
       </c>
       <c r="C144">
-        <v>16841</v>
+        <v>13717</v>
       </c>
       <c r="D144">
-        <v>13348</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>16629</v>
+        <v>15586</v>
       </c>
       <c r="B145">
-        <v>21067</v>
+        <v>20268</v>
       </c>
       <c r="C145">
-        <v>16841</v>
+        <v>13717</v>
       </c>
       <c r="D145">
-        <v>13348</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>16629</v>
+        <v>15586</v>
       </c>
       <c r="B146">
-        <v>21067</v>
+        <v>20268</v>
       </c>
       <c r="C146">
-        <v>16841</v>
+        <v>13717</v>
       </c>
       <c r="D146">
-        <v>13348</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>16629</v>
+        <v>15586</v>
       </c>
       <c r="B147">
-        <v>21067</v>
+        <v>20268</v>
       </c>
       <c r="C147">
-        <v>16841</v>
+        <v>13717</v>
       </c>
       <c r="D147">
-        <v>13348</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>16629</v>
+        <v>15586</v>
       </c>
       <c r="B148">
-        <v>21067</v>
+        <v>20268</v>
       </c>
       <c r="C148">
-        <v>16841</v>
+        <v>13717</v>
       </c>
       <c r="D148">
-        <v>13348</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B149">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C149">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D149">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B150">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C150">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D150">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B151">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C151">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D151">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B152">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C152">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D152">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B153">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C153">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D153">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B154">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C154">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D154">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B155">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C155">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D155">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B156">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C156">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D156">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B157">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C157">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D157">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B158">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C158">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D158">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B159">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C159">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D159">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B160">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C160">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D160">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B161">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C161">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D161">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B162">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C162">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D162">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B163">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C163">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D163">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B164">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C164">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D164">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B165">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C165">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D165">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B166">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C166">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D166">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B167">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C167">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D167">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B168">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C168">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D168">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B169">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C169">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D169">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B170">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C170">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D170">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B171">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C171">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D171">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B172">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C172">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D172">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B173">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C173">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D173">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B174">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C174">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D174">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B175">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C175">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D175">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B176">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C176">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D176">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B177">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C177">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D177">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B178">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C178">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D178">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B179">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C179">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D179">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B180">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C180">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D180">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B181">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C181">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D181">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B182">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C182">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D182">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B183">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C183">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D183">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B184">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C184">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D184">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B185">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C185">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D185">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B186">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C186">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D186">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B187">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C187">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D187">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B188">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C188">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D188">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B189">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C189">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D189">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B190">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C190">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D190">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B191">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C191">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D191">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B192">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C192">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D192">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B193">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C193">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D193">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B194">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C194">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D194">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B195">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C195">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D195">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B196">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C196">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D196">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B197">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C197">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D197">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B198">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C198">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D198">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B199">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C199">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D199">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B200">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C200">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D200">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B201">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C201">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D201">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B202">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C202">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D202">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B203">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C203">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D203">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>16629</v>
+        <v>15510</v>
       </c>
       <c r="B204">
-        <v>21067</v>
+        <v>20277</v>
       </c>
       <c r="C204">
-        <v>16841</v>
+        <v>13718</v>
       </c>
       <c r="D204">
-        <v>13348</v>
+        <v>13346</v>
       </c>
     </row>
   </sheetData>
